--- a/Textbooks, projects/Applied Math/labs/lab_6/var_19/lab_6_var_19.xlsx
+++ b/Textbooks, projects/Applied Math/labs/lab_6/var_19/lab_6_var_19.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA40161B-FDB7-4E47-8090-B13EF6E744A7}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB1D733F-422C-456B-8586-65FBFA4F840F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6295,7 +6295,7 @@
   <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O31" sqref="O31"/>
+      <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6467,7 +6467,7 @@
         <v>-1.46</v>
       </c>
       <c r="E6" s="1">
-        <f t="shared" ref="E6:E10" si="2">B6-2.47</f>
+        <f t="shared" ref="E6:E9" si="2">B6-2.47</f>
         <v>-1.0100000000000002</v>
       </c>
     </row>
